--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -453,6 +468,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -538,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -550,6 +568,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -571,285 +590,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -871,2865 +935,3297 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -936,3296 +939,3296 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -473,7 +473,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -571,7 +571,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -437,22 +443,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto riconoscimento paterno</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1318,7 +1324,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1410,7 +1416,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1525,7 +1531,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1597,10 +1603,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,13 +1620,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
@@ -1634,22 +1640,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1657,22 +1663,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1732,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1755,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1795,22 +1801,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1818,22 +1824,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1841,22 +1847,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1864,22 +1870,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1887,22 +1893,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1979,22 +1985,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2048,22 +2054,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2071,22 +2077,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2094,22 +2100,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2117,19 +2123,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2140,22 +2146,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2186,22 +2192,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,22 +2307,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,22 +2399,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2416,22 +2422,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,22 +2491,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,22 +2537,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>21</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,22 +2606,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2649,16 +2655,16 @@
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,7 +2678,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
@@ -2681,7 +2687,7 @@
         <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,16 +2701,16 @@
         <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2715,10 +2721,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2727,7 +2733,7 @@
         <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2784,16 +2790,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>109</v>
@@ -2807,10 +2813,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
@@ -2819,7 +2825,7 @@
         <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2836,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2899,19 +2905,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2928,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2968,10 +2974,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2980,7 +2986,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2991,10 +2997,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3003,7 +3009,7 @@
         <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,10 +3020,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3026,7 +3032,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,19 +3066,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3083,19 +3089,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3106,19 +3112,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3181,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3250,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3290,22 +3296,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3313,22 +3319,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3336,22 +3342,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3359,22 +3365,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3382,19 +3388,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3405,19 +3411,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3434,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3480,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3497,19 +3503,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3543,19 +3549,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3566,19 +3572,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3589,22 +3595,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3612,22 +3618,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3635,10 +3641,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3647,44 +3653,44 @@
         <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
@@ -3693,541 +3699,633 @@
         <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -479,7 +479,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -577,7 +580,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4219,7 +4222,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4239,10 +4242,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
@@ -4251,7 +4254,7 @@
         <v>94</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4274,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>24</v>
@@ -4285,10 +4288,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
@@ -4297,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4308,10 +4311,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
@@ -4320,7 +4323,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4222,7 +4219,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4242,10 +4239,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
@@ -4254,7 +4251,7 @@
         <v>94</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4265,10 +4262,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4277,7 +4274,7 @@
         <v>94</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>24</v>
@@ -4288,10 +4285,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
@@ -4300,7 +4297,7 @@
         <v>32</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4311,10 +4308,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
@@ -4323,7 +4320,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4219,7 +4222,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4239,10 +4242,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
@@ -4251,7 +4254,7 @@
         <v>94</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4274,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>24</v>
@@ -4285,10 +4288,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
@@ -4297,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4308,10 +4311,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
@@ -4320,7 +4323,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>11,28,43</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -568,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -578,7 +608,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2195,22 +2225,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2218,22 +2248,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2241,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2264,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2287,22 +2317,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2310,22 +2340,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2333,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2356,22 +2386,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2379,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,22 +2432,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2425,22 +2455,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2448,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,22 +2501,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2494,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,22 +2547,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2540,22 +2570,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2563,22 +2593,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2586,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,22 +2639,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2632,22 +2662,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2655,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,22 +2708,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2701,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,22 +2754,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2747,22 +2777,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2770,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,22 +2892,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2885,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,22 +2938,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2931,22 +2961,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2954,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,16 +3122,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>121</v>
@@ -3115,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3345,22 +3375,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3368,22 +3398,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3391,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3529,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3552,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3598,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3644,22 +3674,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3667,19 +3697,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3690,22 +3720,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3713,622 +3743,944 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -3312,7 +3312,7 @@
         <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>116</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1173,7 +1179,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1265,7 +1271,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1380,7 +1386,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1403,7 +1409,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1472,7 +1478,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1587,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1659,10 +1665,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,13 +1682,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1696,22 +1702,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1719,22 +1725,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,22 +1863,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
@@ -1926,22 +1932,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1949,22 +1955,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2064,22 +2070,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2133,22 +2139,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2156,22 +2162,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2179,22 +2185,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,22 +2254,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2317,22 +2323,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2340,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2363,22 +2369,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2386,22 +2392,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,22 +2507,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,22 +2553,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>21</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,22 +2622,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2639,22 +2645,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,22 +2760,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>21</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,22 +2829,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2846,22 +2852,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,22 +2898,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,22 +2944,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -2987,7 +2993,7 @@
         <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2996,7 +3002,7 @@
         <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
         <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3033,19 +3039,19 @@
         <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3053,10 +3059,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3065,7 +3071,7 @@
         <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,16 +3128,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>121</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,10 +3427,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3433,7 +3439,7 @@
         <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,10 +3450,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3456,7 +3462,7 @@
         <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,22 +3703,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3720,22 +3726,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3772,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,22 +3795,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3812,22 +3818,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3835,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,22 +4002,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4019,22 +4025,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,79 +4071,79 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
@@ -4146,541 +4152,656 @@
         <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B177" s="2" t="s">
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E177" s="2" t="s">
+      <c r="C181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -239,6 +239,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
@@ -357,6 +363,9 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>28,43</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -604,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1455,7 +1464,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1478,7 +1487,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1616,7 +1625,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1688,10 +1697,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1705,13 +1714,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>99</v>
@@ -1725,22 +1734,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1748,22 +1757,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1771,19 +1780,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1803,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1826,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1849,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1872,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1895,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,22 +1918,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1932,22 +1941,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1955,22 +1964,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1978,19 +1987,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -2001,22 +2010,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2024,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,22 +2079,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2093,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2139,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2185,22 +2194,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2208,22 +2217,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2231,22 +2240,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2254,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,22 +2309,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2323,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2369,22 +2378,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2392,22 +2401,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2415,22 +2424,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2438,22 +2447,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2461,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,22 +2585,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2599,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,22 +2631,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2645,22 +2654,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2668,22 +2677,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2691,22 +2700,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2714,19 +2723,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2746,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,22 +2769,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2783,22 +2792,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2806,22 +2815,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2829,22 +2838,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2852,22 +2861,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2875,19 +2884,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,22 +2907,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2921,22 +2930,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2944,19 +2953,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,22 +2976,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2990,19 +2999,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,22 +3022,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3036,22 +3045,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3062,7 +3071,7 @@
         <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3071,7 +3080,7 @@
         <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3094,19 @@
         <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3108,19 +3117,19 @@
         <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3128,19 +3137,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3160,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3183,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3206,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3229,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3252,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3275,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3344,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3367,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3413,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3436,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3482,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3597,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3620,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,10 +3643,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
@@ -3646,7 +3655,7 @@
         <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3666,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3680,19 +3689,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3703,19 +3712,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3726,19 +3735,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3749,19 +3758,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,19 +3781,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3795,22 +3804,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3818,22 +3827,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3841,19 +3850,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,22 +3873,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3887,22 +3896,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3910,19 +3919,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3965,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3988,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +4011,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4034,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4057,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4080,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,22 +4103,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>34</v>
@@ -4117,22 +4126,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>34</v>
@@ -4140,19 +4149,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4166,22 +4175,22 @@
         <v>164</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -4189,22 +4198,22 @@
         <v>164</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -4212,596 +4221,688 @@
         <v>164</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="G179" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E182" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -613,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1648,7 +1654,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1720,10 +1726,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1737,13 +1743,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
@@ -1757,22 +1763,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1780,22 +1786,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1941,22 +1947,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1964,22 +1970,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1987,22 +1993,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
@@ -2033,22 +2039,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2079,22 +2085,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2102,22 +2108,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2240,22 +2246,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2263,22 +2269,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2286,22 +2292,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,22 +2361,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2424,22 +2430,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2447,22 +2453,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2470,22 +2476,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2493,22 +2499,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2631,22 +2637,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,22 +2683,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2700,22 +2706,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2723,22 +2729,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2746,22 +2752,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2769,22 +2775,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2815,22 +2821,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2838,22 +2844,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2861,22 +2867,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2884,22 +2890,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2907,22 +2913,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2930,22 +2936,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2976,22 +2982,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2999,22 +3005,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3045,22 +3051,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3091,22 +3097,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3114,22 +3120,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3160,22 +3166,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3183,22 +3189,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3206,10 +3212,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3218,7 +3224,7 @@
         <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3321,10 +3327,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
@@ -3333,7 +3339,7 @@
         <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3350,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3597,10 +3603,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3609,7 +3615,7 @@
         <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3620,10 +3626,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3632,7 +3638,7 @@
         <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3672,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3689,19 +3695,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3718,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3764,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3787,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3804,19 +3810,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3833,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3856,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3873,22 +3879,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3896,22 +3902,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3919,19 +3925,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3942,22 +3948,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -3965,22 +3971,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3988,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4017,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4057,19 +4063,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4086,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4109,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4126,19 +4132,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4149,19 +4155,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4172,22 +4178,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>34</v>
@@ -4195,22 +4201,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>34</v>
@@ -4218,19 +4224,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4241,10 +4247,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4253,656 +4259,748 @@
         <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G182" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B186" s="2" t="s">
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="215">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -326,6 +413,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -383,9 +479,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -533,9 +626,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -561,6 +651,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -619,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1102,312 +1198,312 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1418,19 +1514,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1441,19 +1537,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1560,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1583,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1606,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1629,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1652,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1675,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1698,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1721,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1744,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1767,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1790,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1813,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1836,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1859,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1786,22 +1882,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1809,19 +1905,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1928,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1951,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1974,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1997,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1924,19 +2020,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1947,19 +2043,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1970,22 +2066,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1993,19 +2089,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2016,22 +2112,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2039,22 +2135,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2062,19 +2158,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2085,620 +2181,620 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2706,19 +2802,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2729,22 +2825,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2752,22 +2848,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2775,19 +2871,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2894,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2821,22 +2917,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2844,22 +2940,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2867,22 +2963,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2890,22 +2986,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2913,22 +3009,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2936,22 +3032,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2959,19 +3055,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2982,22 +3078,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3005,22 +3101,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3028,22 +3124,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3051,19 +3147,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3074,22 +3170,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3097,19 +3193,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3120,22 +3216,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3143,19 +3239,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3166,22 +3262,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3189,22 +3285,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3212,19 +3308,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3331,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3354,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3377,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3304,22 +3400,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3327,19 +3423,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3350,22 +3446,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3373,22 +3469,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3396,22 +3492,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3419,19 +3515,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3538,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3561,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3584,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3607,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3630,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3653,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3580,22 +3676,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3603,19 +3699,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3626,22 +3722,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3649,22 +3745,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3672,19 +3768,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3695,19 +3791,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3718,22 +3814,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3741,22 +3837,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3764,19 +3860,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3787,22 +3883,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3810,19 +3906,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3833,22 +3929,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3856,19 +3952,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3879,22 +3975,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -3902,22 +3998,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3925,19 +4021,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3948,22 +4044,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -3971,22 +4067,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3994,19 +4090,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4017,22 +4113,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4040,7 +4136,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -4049,10 +4145,10 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4063,22 +4159,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4086,22 +4182,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>34</v>
@@ -4109,19 +4205,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4132,19 +4228,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4155,16 +4251,16 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>155</v>
@@ -4178,19 +4274,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4201,19 +4297,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4224,19 +4320,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4247,22 +4343,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>34</v>
@@ -4270,22 +4366,22 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>34</v>
@@ -4293,19 +4389,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4316,617 +4412,617 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4937,22 +5033,22 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>34</v>
@@ -4960,19 +5056,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -4983,24 +5079,944 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="215">
   <si>
     <t>Sezione</t>
   </si>
@@ -715,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2506,7 +2506,7 @@
         <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2515,7 +2515,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2529,7 +2529,7 @@
         <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2538,7 +2538,7 @@
         <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2552,7 +2552,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2561,7 +2561,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2575,7 +2575,7 @@
         <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2584,7 +2584,7 @@
         <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2598,7 +2598,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2607,7 +2607,7 @@
         <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2621,7 +2621,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2630,7 +2630,7 @@
         <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2644,7 +2644,7 @@
         <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2653,7 +2653,7 @@
         <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2667,7 +2667,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2676,7 +2676,7 @@
         <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2690,7 +2690,7 @@
         <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2699,7 +2699,7 @@
         <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2713,7 +2713,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2722,7 +2722,7 @@
         <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2736,7 +2736,7 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2745,7 +2745,7 @@
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2756,25 +2756,25 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -2782,19 +2782,19 @@
         <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2805,16 +2805,16 @@
         <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2828,16 +2828,16 @@
         <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2851,7 +2851,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
@@ -2860,7 +2860,7 @@
         <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2874,7 +2874,7 @@
         <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
@@ -2883,7 +2883,7 @@
         <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2897,7 +2897,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
@@ -2906,7 +2906,7 @@
         <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2920,16 +2920,16 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2943,7 +2943,7 @@
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2952,10 +2952,10 @@
         <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2966,7 +2966,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2975,10 +2975,10 @@
         <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2989,7 +2989,7 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2998,10 +2998,10 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3012,7 +3012,7 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3021,7 +3021,7 @@
         <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -3035,19 +3035,19 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -3058,7 +3058,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
@@ -3067,7 +3067,7 @@
         <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3081,19 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3104,7 +3104,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3113,7 +3113,7 @@
         <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3127,7 +3127,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3136,10 +3136,10 @@
         <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3150,7 +3150,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3159,10 +3159,10 @@
         <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3173,7 +3173,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3182,10 +3182,10 @@
         <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3196,7 +3196,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3205,10 +3205,10 @@
         <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3219,7 +3219,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3228,10 +3228,10 @@
         <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3242,7 +3242,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3251,10 +3251,10 @@
         <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3265,7 +3265,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3274,7 +3274,7 @@
         <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>21</v>
@@ -3288,19 +3288,19 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3311,7 +3311,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
@@ -3320,7 +3320,7 @@
         <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3334,7 +3334,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
@@ -3343,7 +3343,7 @@
         <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3357,16 +3357,16 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3380,7 +3380,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3389,10 +3389,10 @@
         <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3403,7 +3403,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3412,10 +3412,10 @@
         <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3426,7 +3426,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3435,10 +3435,10 @@
         <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3449,7 +3449,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3458,7 +3458,7 @@
         <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>21</v>
@@ -3469,22 +3469,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3495,19 +3495,19 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>34</v>
@@ -3518,16 +3518,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3541,16 +3541,16 @@
         <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3564,7 +3564,7 @@
         <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
@@ -3573,7 +3573,7 @@
         <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3587,7 +3587,7 @@
         <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
@@ -3596,7 +3596,7 @@
         <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
@@ -3619,7 +3619,7 @@
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3633,16 +3633,16 @@
         <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3656,7 +3656,7 @@
         <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3665,10 +3665,10 @@
         <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3679,7 +3679,7 @@
         <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3688,10 +3688,10 @@
         <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3702,7 +3702,7 @@
         <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3711,10 +3711,10 @@
         <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3725,7 +3725,7 @@
         <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3734,7 +3734,7 @@
         <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>151</v>
@@ -3748,19 +3748,19 @@
         <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3771,7 +3771,7 @@
         <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
@@ -3780,7 +3780,7 @@
         <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3794,19 +3794,19 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3817,7 +3817,7 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3826,7 +3826,7 @@
         <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>151</v>
@@ -3840,7 +3840,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3849,10 +3849,10 @@
         <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3863,7 +3863,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3872,10 +3872,10 @@
         <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3886,7 +3886,7 @@
         <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3895,10 +3895,10 @@
         <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3909,7 +3909,7 @@
         <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3918,10 +3918,10 @@
         <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3932,7 +3932,7 @@
         <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3941,10 +3941,10 @@
         <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3955,7 +3955,7 @@
         <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3964,10 +3964,10 @@
         <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3978,7 +3978,7 @@
         <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3987,7 +3987,7 @@
         <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>151</v>
@@ -4001,19 +4001,19 @@
         <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -4024,7 +4024,7 @@
         <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
@@ -4033,7 +4033,7 @@
         <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4047,7 +4047,7 @@
         <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
@@ -4056,7 +4056,7 @@
         <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4070,16 +4070,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4093,7 +4093,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4102,10 +4102,10 @@
         <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4116,7 +4116,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4125,10 +4125,10 @@
         <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4139,7 +4139,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4148,10 +4148,10 @@
         <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4162,7 +4162,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4171,7 +4171,7 @@
         <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>151</v>
@@ -4182,22 +4182,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>34</v>
@@ -4208,16 +4208,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4231,16 +4231,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4254,7 +4254,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4263,7 +4263,7 @@
         <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4277,16 +4277,16 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4300,16 +4300,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4323,7 +4323,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>18</v>
@@ -4332,7 +4332,7 @@
         <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4346,16 +4346,16 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4369,7 +4369,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
@@ -4378,7 +4378,7 @@
         <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4392,16 +4392,16 @@
         <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4415,7 +4415,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
@@ -4424,7 +4424,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4438,16 +4438,16 @@
         <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4461,7 +4461,7 @@
         <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4470,7 +4470,7 @@
         <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4484,7 +4484,7 @@
         <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4507,7 +4507,7 @@
         <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4516,7 +4516,7 @@
         <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4530,16 +4530,16 @@
         <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4553,16 +4553,16 @@
         <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4576,7 +4576,7 @@
         <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4585,7 +4585,7 @@
         <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4599,7 +4599,7 @@
         <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4608,7 +4608,7 @@
         <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4622,7 +4622,7 @@
         <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4631,7 +4631,7 @@
         <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4645,16 +4645,16 @@
         <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4668,7 +4668,7 @@
         <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4677,7 +4677,7 @@
         <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4688,19 +4688,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4714,16 +4714,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4737,16 +4737,16 @@
         <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4760,7 +4760,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
@@ -4769,7 +4769,7 @@
         <v>175</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>18</v>
@@ -4792,7 +4792,7 @@
         <v>175</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4806,7 +4806,7 @@
         <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
@@ -4815,7 +4815,7 @@
         <v>175</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4829,7 +4829,7 @@
         <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
@@ -4838,7 +4838,7 @@
         <v>175</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4852,7 +4852,7 @@
         <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
@@ -4861,7 +4861,7 @@
         <v>175</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
@@ -4884,7 +4884,7 @@
         <v>175</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4898,7 +4898,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>18</v>
@@ -4907,7 +4907,7 @@
         <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4921,19 +4921,19 @@
         <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4944,7 +4944,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4953,7 +4953,7 @@
         <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>22</v>
@@ -4967,19 +4967,19 @@
         <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4987,19 +4987,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5013,16 +5013,16 @@
         <v>197</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5036,16 +5036,16 @@
         <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5059,7 +5059,7 @@
         <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>18</v>
@@ -5068,7 +5068,7 @@
         <v>199</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5082,7 +5082,7 @@
         <v>197</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>18</v>
@@ -5091,7 +5091,7 @@
         <v>199</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5105,7 +5105,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>18</v>
@@ -5114,7 +5114,7 @@
         <v>199</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5128,7 +5128,7 @@
         <v>197</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>18</v>
@@ -5137,7 +5137,7 @@
         <v>199</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5151,7 +5151,7 @@
         <v>197</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>18</v>
@@ -5160,7 +5160,7 @@
         <v>199</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5174,7 +5174,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
@@ -5183,7 +5183,7 @@
         <v>199</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5197,7 +5197,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>18</v>
@@ -5206,7 +5206,7 @@
         <v>199</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5220,19 +5220,19 @@
         <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>34</v>
@@ -5243,7 +5243,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5252,7 +5252,7 @@
         <v>199</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>22</v>
@@ -5266,19 +5266,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>34</v>
@@ -5286,25 +5286,25 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200">
@@ -5312,19 +5312,19 @@
         <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>203</v>
@@ -5335,16 +5335,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5358,16 +5358,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5381,7 +5381,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>18</v>
@@ -5390,7 +5390,7 @@
         <v>201</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5404,7 +5404,7 @@
         <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>18</v>
@@ -5413,7 +5413,7 @@
         <v>201</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5427,7 +5427,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>18</v>
@@ -5436,7 +5436,7 @@
         <v>201</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5450,16 +5450,16 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5473,7 +5473,7 @@
         <v>200</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5482,10 +5482,10 @@
         <v>201</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>203</v>
@@ -5496,7 +5496,7 @@
         <v>200</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5505,10 +5505,10 @@
         <v>201</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>203</v>
@@ -5519,7 +5519,7 @@
         <v>200</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
@@ -5528,10 +5528,10 @@
         <v>201</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>203</v>
@@ -5542,7 +5542,7 @@
         <v>200</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5551,7 +5551,7 @@
         <v>201</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>202</v>
@@ -5565,19 +5565,19 @@
         <v>200</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>203</v>
@@ -5588,7 +5588,7 @@
         <v>200</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>18</v>
@@ -5597,7 +5597,7 @@
         <v>201</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5611,19 +5611,19 @@
         <v>200</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>203</v>
@@ -5634,7 +5634,7 @@
         <v>200</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5643,7 +5643,7 @@
         <v>201</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>202</v>
@@ -5657,7 +5657,7 @@
         <v>200</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5666,10 +5666,10 @@
         <v>201</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>203</v>
@@ -5680,7 +5680,7 @@
         <v>200</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5689,10 +5689,10 @@
         <v>201</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>203</v>
@@ -5703,7 +5703,7 @@
         <v>200</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5712,10 +5712,10 @@
         <v>201</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>203</v>
@@ -5726,7 +5726,7 @@
         <v>200</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5735,10 +5735,10 @@
         <v>201</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>203</v>
@@ -5749,7 +5749,7 @@
         <v>200</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5758,10 +5758,10 @@
         <v>201</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>203</v>
@@ -5772,7 +5772,7 @@
         <v>200</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5781,10 +5781,10 @@
         <v>201</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>203</v>
@@ -5795,7 +5795,7 @@
         <v>200</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         <v>201</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>202</v>
@@ -5818,19 +5818,19 @@
         <v>200</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>203</v>
@@ -5841,7 +5841,7 @@
         <v>200</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>18</v>
@@ -5850,7 +5850,7 @@
         <v>201</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5864,7 +5864,7 @@
         <v>200</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
@@ -5873,7 +5873,7 @@
         <v>201</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5884,25 +5884,25 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226">
@@ -5910,19 +5910,19 @@
         <v>204</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>34</v>
@@ -5933,19 +5933,19 @@
         <v>204</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>34</v>
@@ -5956,16 +5956,16 @@
         <v>204</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5979,44 +5979,21 @@
         <v>204</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -715,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1842,7 +1848,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>77</v>
@@ -4970,7 +4976,7 @@
         <v>195</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>175</v>
@@ -4979,7 +4985,7 @@
         <v>196</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4987,19 +4993,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5010,19 +5016,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5033,19 +5039,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5056,19 +5062,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5079,19 +5085,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5102,19 +5108,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5125,19 +5131,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5148,19 +5154,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5171,19 +5177,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5194,19 +5200,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5217,22 +5223,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>34</v>
@@ -5240,19 +5246,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>22</v>
@@ -5263,22 +5269,22 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>34</v>
@@ -5286,10 +5292,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5298,21 +5304,21 @@
         <v>201</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>18</v>
@@ -5321,628 +5327,628 @@
         <v>201</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5953,22 +5959,22 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>34</v>
@@ -5976,24 +5982,70 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E229" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -5620,7 +5620,7 @@
         <v>100</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>203</v>
@@ -5643,7 +5643,7 @@
         <v>102</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>203</v>
@@ -5652,7 +5652,7 @@
         <v>103</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>205</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_108.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="221">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -721,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1641,7 +1653,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>77</v>
@@ -1664,7 +1676,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>77</v>
@@ -1710,7 +1722,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -1733,7 +1745,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>77</v>
@@ -1799,7 +1811,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1808,7 +1820,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1822,7 +1834,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1831,7 +1843,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1845,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2078,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>77</v>
@@ -2101,7 +2113,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>77</v>
@@ -2150,10 +2162,10 @@
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2167,16 +2179,16 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2187,65 +2199,65 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2268,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2314,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2337,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2360,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2383,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2406,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2429,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2475,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2498,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2521,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2544,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2567,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2590,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2613,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2636,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2659,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2682,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2705,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2728,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2751,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2762,114 +2774,114 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2877,19 +2889,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2912,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2935,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2946,22 +2958,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2969,22 +2981,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2992,22 +3004,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3015,22 +3027,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -3038,19 +3050,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3073,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3096,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3107,22 +3119,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3130,22 +3142,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3153,19 +3165,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>21</v>
@@ -3176,19 +3188,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3199,22 +3211,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3222,22 +3234,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3245,19 +3257,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3268,22 +3280,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3291,22 +3303,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3314,19 +3326,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3337,22 +3349,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3360,19 +3372,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3395,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>21</v>
@@ -3406,22 +3418,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3429,22 +3441,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3452,22 +3464,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3475,22 +3487,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3498,19 +3510,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3521,22 +3533,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3544,19 +3556,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3567,22 +3579,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>34</v>
@@ -3590,22 +3602,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>34</v>
@@ -3613,22 +3625,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3636,19 +3648,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3659,22 +3671,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3682,19 +3694,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3705,22 +3717,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3728,22 +3740,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3751,19 +3763,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3786,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3797,22 +3809,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3820,22 +3832,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3843,22 +3855,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3866,22 +3878,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3889,22 +3901,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3912,22 +3924,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3935,19 +3947,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3958,22 +3970,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3981,22 +3993,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>34</v>
@@ -4004,22 +4016,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -4027,19 +4039,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4050,22 +4062,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -4073,19 +4085,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4096,22 +4108,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4119,19 +4131,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4142,22 +4154,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4165,22 +4177,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4188,19 +4200,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4211,19 +4223,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4234,19 +4246,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4269,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4280,22 +4292,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>34</v>
@@ -4303,19 +4315,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4326,22 +4338,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>34</v>
@@ -4349,22 +4361,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>34</v>
@@ -4372,19 +4384,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4395,19 +4407,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4418,19 +4430,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4441,19 +4453,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4464,19 +4476,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4487,19 +4499,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4510,19 +4522,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4533,10 +4545,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
@@ -4545,7 +4557,7 @@
         <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4556,19 +4568,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4579,19 +4591,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4602,19 +4614,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4625,19 +4637,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4648,19 +4660,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4671,19 +4683,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4694,19 +4706,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4717,19 +4729,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4740,19 +4752,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4763,19 +4775,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4786,19 +4798,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4809,19 +4821,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4832,19 +4844,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4855,19 +4867,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4878,19 +4890,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4901,19 +4913,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4924,22 +4936,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4947,22 +4959,22 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>34</v>
@@ -4970,22 +4982,22 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4993,19 +5005,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5016,19 +5028,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5039,19 +5051,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5062,19 +5074,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5085,19 +5097,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5108,22 +5120,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>34</v>
@@ -5131,22 +5143,22 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>34</v>
@@ -5154,22 +5166,22 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C193" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>34</v>
@@ -5177,19 +5189,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5212,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5223,19 +5235,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5246,22 +5258,22 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>34</v>
@@ -5269,22 +5281,22 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>34</v>
@@ -5292,22 +5304,22 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>34</v>
@@ -5315,19 +5327,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5338,600 +5350,600 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227">
@@ -5939,22 +5951,22 @@
         <v>206</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228">
@@ -5962,22 +5974,22 @@
         <v>206</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -5985,22 +5997,22 @@
         <v>206</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230">
@@ -6008,22 +6020,22 @@
         <v>206</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231">
@@ -6031,21 +6043,251 @@
         <v>206</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="C239" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>34</v>
       </c>
     </row>
